--- a/data/trans_dic/P25_10-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_10-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece varices en las piernas</t>
+          <t>Población que padece varices en las piernas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,37 +667,52 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,44%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 15,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 14,26</t>
+          <t>0,0; 13,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,28</t>
+          <t>0,0; 15,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 10,01</t>
+          <t>0,0; 8,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,47</t>
+          <t>0,0; 16,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 6,44</t>
+          <t>0,0; 7,63</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,01</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,33</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,93</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>28,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>21,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>27,18%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>10,54%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,91%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6,83%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11,31%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,48</t>
+          <t>0,0; 10,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,42; 39,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,8; 24,14</t>
+          <t>12,14; 34,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,91; 22,08</t>
+          <t>3,39; 20,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,54; 23,56</t>
+          <t>7,1; 28,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,52; 13,74</t>
+          <t>16,13; 43,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,73; 12,08</t>
+          <t>5,58; 18,7</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2,59; 13,27</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 13,97</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5,67; 19,8</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,19%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>21,02%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>15,49%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>12,8%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>10,11%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>14,37%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 8,08</t>
+          <t>1,6; 13,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,88</t>
+          <t>0,0; 11,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 8,47</t>
+          <t>0,0; 11,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,22; 30,81</t>
+          <t>1,71; 15,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,63; 28,3</t>
+          <t>14,83; 31,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,07; 22,15</t>
+          <t>12,08; 27,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,08; 18,47</t>
+          <t>9,36; 23,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,04; 16,92</t>
+          <t>13,6; 29,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,06; 14,15</t>
+          <t>10,68; 21,82</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8,67; 18,89</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6,29; 15,51</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>10,2; 20,84</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,29%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,55%</t>
+          <t>36,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>27,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>31,36%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>23,74%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18,03%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18,25%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>24,6%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,53; 12,02</t>
+          <t>3,74; 16,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 15,08</t>
+          <t>2,5; 15,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,83; 18,29</t>
+          <t>4,52; 17,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,56; 38,66</t>
+          <t>9,84; 27,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,02; 32,11</t>
+          <t>27,6; 45,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,57; 32,05</t>
+          <t>19,32; 36,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,09; 24,72</t>
+          <t>18,67; 36,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,13; 22,46</t>
+          <t>23,01; 41,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,57; 23,02</t>
+          <t>17,82; 30,62</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>13,44; 23,63</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13,3; 24,42</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>18,67; 30,51</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>27,22%</t>
+          <t>28,58%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>29,22%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>34,88%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>12,49%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17,64%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17,34%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>21,16%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,88; 14,73</t>
+          <t>3,52; 15,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,25; 15,12</t>
+          <t>4,0; 18,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,9; 14,66</t>
+          <t>2,96; 16,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,45; 27,2</t>
+          <t>3,08; 18,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,41; 37,69</t>
+          <t>9,15; 30,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,3; 37,01</t>
+          <t>16,84; 41,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,45; 17,97</t>
+          <t>17,29; 43,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,18; 23,95</t>
+          <t>21,84; 49,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,46; 22,73</t>
+          <t>7,14; 19,04</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11,48; 25,37</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11,55; 25,13</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>14,36; 31,41</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>42,44%</t>
+          <t>24,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>30,79%</t>
+          <t>48,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>30,21%</t>
+          <t>47,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>42,61%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>51,99%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>35,34%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>29,95%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>28,11%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>40,85%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,71; 23,49</t>
+          <t>7,88; 32,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,55; 21,17</t>
+          <t>0,0; 21,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,37; 17,23</t>
+          <t>2,47; 22,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>31,03; 51,7</t>
+          <t>12,13; 40,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,64; 41,89</t>
+          <t>33,73; 64,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,78; 42,36</t>
+          <t>33,25; 62,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>23,28; 37,77</t>
+          <t>27,79; 58,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,78; 30,18</t>
+          <t>32,84; 67,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,37; 29,65</t>
+          <t>26,0; 46,32</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>20,69; 39,34</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>18,37; 38,19</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>28,51; 53,07</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>25,96%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>25,6%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>22,07%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>29,15%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>16,74%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>14,05%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>12,97%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>19,25%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,12</t>
+          <t>4,1; 9,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,9; 7,29</t>
+          <t>3,35; 8,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,95; 7,8</t>
+          <t>3,15; 7,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,87; 29,6</t>
+          <t>5,93; 12,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,43; 24,6</t>
+          <t>21,58; 30,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,23; 22,63</t>
+          <t>18,56; 26,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,26; 18,49</t>
+          <t>16,97; 24,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,91; 15,81</t>
+          <t>24,24; 34,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,7; 14,56</t>
+          <t>13,98; 19,48</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>11,65; 16,58</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>10,75; 15,77</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>16,11; 22,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece varices en las piernas (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3643</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5503</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2117</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3643</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5503</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2117</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17953</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18463</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10474</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 24129</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18402</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18078</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10839</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 26023</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3293</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>35174</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>12669</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>19157</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>44131</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>35174</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15962</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>19157</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>44131</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14527</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>20052; 57451</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4295; 25590</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8969; 36326</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>26191; 70367</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>18616; 62414</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6984; 35845</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>7282; 39198</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>22105; 77252</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8197</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4786</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4312</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>9955</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>57419</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>39225</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>29676</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>50394</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>65616</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>44011</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>33988</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>60348</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2551; 22135</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15201</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15721</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3077; 27584</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>39163; 82439</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>25293; 57756</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18598; 45938</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>32598; 70815</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>45229; 92422</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>29807; 64930</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21168; 52168</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>42816; 87538</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>16106</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>11589</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>15424</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>35174</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>80057</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>50992</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>44544</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>66707</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>96163</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>62582</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>59968</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>101881</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6988; 30927</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4029; 25032</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7061; 27670</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>19826; 54545</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>60268; 100254</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>35925; 67337</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>32194; 62311</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>48942; 89019</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>72173; 124023</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>46651; 82027</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>43707; 80261</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>77326; 126345</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12871</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>13035</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>10347</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>13918</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>21021</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>26808</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>27081</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>47799</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>33892</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>39843</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>37428</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>61717</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5548; 25048</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5282; 24221</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3644; 20599</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4762; 28144</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10420; 34742</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>15798; 39154</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>16028; 39902</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>29935; 68154</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>19372; 51649</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>25936; 57298</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>24938; 54238</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>41876; 91622</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>20160</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>7204</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>9296</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>33202</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>67109</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>50449</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>47127</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>107856</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>87269</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>57653</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>56423</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>141058</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>8614; 35239</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 18857</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2228; 20302</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>16713; 55337</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>46415; 88347</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>34963; 65839</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>30733; 64798</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>68137; 140585</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>64195; 114373</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>39822; 75712</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>36868; 76662</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>98431; 183231</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>57335</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>39906</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>39379</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>92248</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>264423</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>185647</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>169702</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>322032</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>321758</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>225553</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>209081</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>414280</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>36430; 86431</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>25560; 61117</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>24844; 60266</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>62153; 129443</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>222969; 313858</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>156094; 223038</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>139671; 204882</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>267819; 381070</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>268593; 374333</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>186970; 266136</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>173344; 254239</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>346680; 487905</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>